--- a/report/summary_XAUUSD_M15_2020-2023_0.xlsx
+++ b/report/summary_XAUUSD_M15_2020-2023_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,7 +532,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -551,54 +551,54 @@
         <v>2023</v>
       </c>
       <c r="F2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.5</v>
-      </c>
       <c r="K2" t="n">
-        <v>-4957.120000000003</v>
+        <v>-3972.970000000018</v>
       </c>
       <c r="L2" t="n">
-        <v>-2478.560000000001</v>
+        <v>-1988.430000000009</v>
       </c>
       <c r="M2" t="n">
-        <v>1753</v>
+        <v>1955</v>
       </c>
       <c r="N2" t="n">
-        <v>-2478.560000000001</v>
+        <v>-1984.54000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>-22.79999999999995</v>
+        <v>-22.29999999999995</v>
       </c>
       <c r="P2" t="n">
-        <v>30.32999999999993</v>
+        <v>32.83000000000015</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.413896177980605</v>
+        <v>-1.015109974424557</v>
       </c>
       <c r="R2" t="n">
-        <v>3.543291813995003</v>
+        <v>4.088675399494622</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.670000000000073</v>
+        <v>-2.130000000000109</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1312036508841985</v>
+        <v>0.2920716112531969</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -617,54 +617,54 @@
         <v>2023</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="K3" t="n">
-        <v>-17734.97999999999</v>
+        <v>-4000.380000000006</v>
       </c>
       <c r="L3" t="n">
-        <v>-8870.129999999996</v>
+        <v>-2009.510000000003</v>
       </c>
       <c r="M3" t="n">
-        <v>8949</v>
+        <v>2941</v>
       </c>
       <c r="N3" t="n">
-        <v>-8864.849999999997</v>
+        <v>-1990.870000000004</v>
       </c>
       <c r="O3" t="n">
-        <v>-42.26999999999998</v>
+        <v>-22.29999999999995</v>
       </c>
       <c r="P3" t="n">
-        <v>60.42000000000007</v>
+        <v>28.76999999999998</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.9905967147167277</v>
+        <v>-0.6769364161849724</v>
       </c>
       <c r="R3" t="n">
-        <v>5.243296813272046</v>
+        <v>3.518669664971411</v>
       </c>
       <c r="S3" t="n">
-        <v>-2.329999999999927</v>
+        <v>-1.039999999999964</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2259470331880657</v>
+        <v>0.342740564433866</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -683,49 +683,643 @@
         <v>2023</v>
       </c>
       <c r="F4" t="n">
+        <v>30</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-4205.910000000007</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-2124.670000000003</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2051</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-2081.240000000005</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-26.50999999999999</v>
+      </c>
+      <c r="P4" t="n">
+        <v>44.98000000000002</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-1.014744027303757</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6.4741307796364</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-3.229999999999791</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2545099951243296</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F5" t="n">
+        <v>90</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-4957.120000000003</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-2478.560000000001</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1753</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-2478.560000000001</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-22.79999999999995</v>
+      </c>
+      <c r="P5" t="n">
+        <v>30.32999999999993</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-1.413896177980605</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.543291813995003</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-1.670000000000073</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.1312036508841985</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-5753.369999999981</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-2896.209999999989</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2655</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-2857.159999999992</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-25.38000000000011</v>
+      </c>
+      <c r="P6" t="n">
+        <v>80.47000000000003</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-1.076143126177021</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6.588967269759589</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-2.490000000000009</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.1672316384180791</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F7" t="n">
+        <v>50</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-5853.359999999999</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-2926.679999999999</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2723</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-2926.679999999999</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-16.3900000000001</v>
+      </c>
+      <c r="P7" t="n">
+        <v>51.35000000000014</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-1.074799853103195</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4.470218978744637</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-1.960000000000036</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.2071244950422328</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F8" t="n">
+        <v>60</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-6871.419999999991</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-3444.299999999994</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4757</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-3427.119999999997</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-27.92000000000007</v>
+      </c>
+      <c r="P8" t="n">
+        <v>54.82999999999993</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.7204372503678783</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.951834723485022</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-2.1400000000001</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.320369981080513</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-9623.930000000008</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-4813.260000000004</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4140</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-4810.670000000004</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-14.55999999999995</v>
+      </c>
+      <c r="P9" t="n">
+        <v>37.46000000000004</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-1.161997584541064</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.088913977497697</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.09613526570048309</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F10" t="n">
         <v>20</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-14670.64000000006</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-7335.320000000028</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7417</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-7335.320000000028</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-18.55999999999995</v>
+      </c>
+      <c r="P10" t="n">
+        <v>60.42000000000007</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.988987461237701</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.631705163038559</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.1647566401510044</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F11" t="n">
+        <v>50</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-17734.97999999999</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-8870.129999999996</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8949</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-8864.849999999997</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-42.26999999999998</v>
+      </c>
+      <c r="P11" t="n">
+        <v>60.42000000000007</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.9905967147167277</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5.243296813272046</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-2.329999999999927</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.2259470331880657</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.6000000000000001</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H12" t="n">
         <v>1.5</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J12" t="n">
         <v>0</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K12" t="n">
         <v>-26713.00999999998</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L12" t="n">
         <v>-13357.10999999999</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M12" t="n">
         <v>17288</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N12" t="n">
         <v>-13355.89999999999</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O12" t="n">
         <v>-100.0700000000002</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P12" t="n">
         <v>60.42000000000007</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q12" t="n">
         <v>-0.772553216103655</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R12" t="n">
         <v>3.608625827397614</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S12" t="n">
         <v>-1.6099999999999</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T12" t="n">
         <v>0.2739472466450718</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-34080.46000000006</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-17045.53000000003</v>
+      </c>
+      <c r="M13" t="n">
+        <v>24643</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-17034.93000000003</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-98.79999999999995</v>
+      </c>
+      <c r="P13" t="n">
+        <v>65.21000000000004</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.691268514385425</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4.408226666600042</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-1.629999999999882</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.2489144990463824</v>
       </c>
     </row>
   </sheetData>
